--- a/BurnDown.xlsx
+++ b/BurnDown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e13f8c6e67224aec/Documentos/allan/atividades/engenharia/Documentacao-ES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE2E9DEE-5DF0-40F2-9A23-A09CF8A13201}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{37661DF5-F84C-4274-B02E-7AB666D0E887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D51CD3E-0D9E-49C8-AB36-63BF9F456388}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E19A0196-D1B4-42F9-82A4-338EA5D692C9}"/>
   </bookViews>
@@ -329,6 +329,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,16 +1104,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1438,7 +1441,7 @@
   <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1488,6 +1491,9 @@
       <c r="C5">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
